--- a/downloads/123.xlsx
+++ b/downloads/123.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="საგარანტიო გასვლები" r:id="rId3" sheetId="1"/>
+    <sheet name="პირველი გასვლები" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -195,17 +195,17 @@
     <col min="1" max="1" width="11.71875" customWidth="true"/>
     <col min="2" max="2" width="3.90625" customWidth="true"/>
     <col min="3" max="3" width="5.859375" customWidth="true"/>
-    <col min="4" max="4" width="27.34375" customWidth="true"/>
+    <col min="4" max="4" width="11.71875" customWidth="true"/>
     <col min="5" max="5" width="27.34375" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
-    <col min="7" max="7" width="19.53125" customWidth="true"/>
-    <col min="8" max="8" width="10.9375" customWidth="true"/>
-    <col min="9" max="9" width="10.9375" customWidth="true"/>
-    <col min="10" max="10" width="10.9375" customWidth="true"/>
-    <col min="11" max="11" width="5.859375" customWidth="true"/>
-    <col min="12" max="12" width="5.859375" customWidth="true"/>
-    <col min="13" max="13" width="27.34375" customWidth="true"/>
-    <col min="14" max="14" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true"/>
+    <col min="7" max="7" width="11.71875" customWidth="true"/>
+    <col min="8" max="8" width="11.71875" customWidth="true"/>
+    <col min="9" max="9" width="11.71875" customWidth="true"/>
+    <col min="10" max="10" width="11.71875" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
+    <col min="13" max="13" width="11.71875" customWidth="true"/>
+    <col min="14" max="14" width="27.34375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -214,76 +214,76 @@
           <t>თარიღი</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ავტობაზა</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>მარშრუტის #</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>A პუნქტი</t>
+          <t>სახ.#</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>B პუნქტი</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>მიმართულება</t>
+          <t>ტაბელის #</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>სახელი გვარი</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>საგარანტიო გასვლის ტიპი</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>გეგმიური გასვლის დრო</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>ფაქტიური გასვლის დრო</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>სხვაობა</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>გეგმიური გასვლის ნომერი</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>ფაქტიური გასვლის ნომერი</t>
+          <t>ბაზიდან გამოსვლის დრო გეგმიური</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ბაზიდან გამოსვლის დრო ფაქტიური</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>პუნქტში მისვლის დრო გეგმიური</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>პუნქტში მისვლის დრო ფაქტიური</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ხაზზე გასვლის დრო გეგმიური</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ხაზზე გასვლის დრო ფაქტიური</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ფაქტიური გასვლის მძღოლი</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>ფაქტიური გასვლის სახ. ნომერი</t>
+          <t>დარღვევა</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>გატარებული ღონისძიება</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -296,48 +296,52 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>აგრარულის საერთო საცხოვრებელი</t>
+          <t>TT-287-CB</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>ვარკეთილის IV მ/რ</t>
+          <t>13605</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>A_B</t>
+          <t>გევორქ სარქისიანი</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>ქვე-საგარანტიო</t>
+          <t>06:37:13</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>22:04:00</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>21:38:40</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>-00:25:20</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <v>2.0</v>
+          <t>07:13:50</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>07:08:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>08:01:20</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>07:13:00</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>15:33:30</t>
+        </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>გელა კოჭლამაზაშვილი</t>
+          <t>08:20:30</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -349,7 +353,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
@@ -362,48 +366,54 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>აგრარულის საერთო საცხოვრებელი</t>
+          <t>TT-280-CB</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>ვარკეთილის IV მ/რ</t>
+          <t>13525</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>A_B</t>
+          <t>ალექსი ჩიტიაშვილი</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>საგარანტიო</t>
+          <t>07:04:13</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>22:58:00</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J3" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M3" s="3"/>
+          <t>07:41:40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>07:35:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>08:31:30</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>07:40:00</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>15:58:50</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>08:18:50</t>
+        </is>
+      </c>
       <c r="N3" s="3" t="inlineStr">
         <is>
           <t/>
@@ -413,7 +423,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -426,48 +436,52 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>აგრარულის საერთო საცხოვრებელი</t>
+          <t>TT-295-CB</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>ვარკეთილის IV მ/რ</t>
+          <t>9051</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>B_A</t>
+          <t>ლაშა მაჭარაშვილი</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>ქვე-საგარანტიო</t>
+          <t>06:45:51</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>21:51:00</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>21:52:20</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>00:01:20</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>5.0</v>
+          <t>06:36:20</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>06:51:30</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>14:13:20</t>
+        </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>გევორქ სარქისიანი</t>
+          <t>07:13:20</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
@@ -479,64 +493,3288 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>TT-282-CB</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>გიორგი აბესაძე</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>07:12:51</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>13:59:40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>07:22:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>14:33:10</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>07:27:00</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>07:00:10</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>-00:26:50</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>TT-276-CB</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>12816</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>გელა კოჭლამაზაშვილი</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>07:39:51</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>07:30:40</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>07:49:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>07:44:00</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>07:54:00</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>15:09:10</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>07:15:10</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>TT-287-CB</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>როლანდი ჯინჯოლავა</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>06:37:13</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>13:18:10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>07:08:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>14:11:10</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>07:13:00</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>22:11:50</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>14:58:50</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>TT-280-CB</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>3618</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>ვლადიმერ გაბედავა</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07:04:13</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>13:46:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>07:35:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>14:47:10</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>07:40:00</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>22:45:40</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>15:05:40</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>TT-346-CB</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ვალერიანე მუხიაშვილი</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>06:45:51</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>12:38:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>13:42:50</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>21:00:10</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>14:00:10</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>TT-282-CB</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>13678</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>ჯაბო მამედოვი</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>07:12:51</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>07:02:40</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>07:22:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>07:18:00</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>07:27:00</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>07:27:50</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>00:00:50</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>TT-306-CB</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>3818</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>მურმან კვარაცხელია</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>07:39:51</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>07:30:10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>07:49:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>07:50:10</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>07:54:00</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>15:33:00</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>07:39:00</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>TT-276-CB</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>13849</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>ხათუნა მიქავა</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>06:37:13</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>13:47:30</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>07:08:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>14:54:00</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>07:13:00</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>TT-418-CB</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>9051</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>ლაშა მაჭარაშვილი</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>07:04:13</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>14:11:10</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>07:35:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>15:12:31</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>07:40:00</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>21:51:50</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>14:11:50</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>TT-280-CB</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>13525</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>ალექსი ჩიტიაშვილი</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>06:45:51</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>12:55:10</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>14:15:40</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>20:24:40</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>13:24:40</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>TT-282-CB</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>გიორგი აბესაძე</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>07:12:51</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>12:16:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>07:22:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13:26:20</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>07:27:00</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>20:11:20</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>12:44:20</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>TT-287-CB</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>13605</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>გევორქ სარქისიანი</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>07:39:51</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>14:06:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>07:49:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15:21:40</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>07:54:00</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>20:50:10</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>12:56:10</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>TT-280-CB</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>3618</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>ვლადიმერ გაბედავა</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>06:37:13</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>11:44:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>07:08:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>13:32:19</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>07:13:00</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>20:06:40</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>12:53:40</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>TT-306-CB</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>ვალერიანე მუხიაშვილი</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>07:04:13</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>12:10:10</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>07:35:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>13:16:10</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>07:40:00</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>20:32:10</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>12:52:10</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>TT-276-CB</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>3818</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>მურმან კვარაცხელია</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>06:45:51</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>10:23:30</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11:31:40</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>TT-287-CB</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>როლანდი ჯინჯოლავა</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>07:12:51</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>09:41:50</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>07:22:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10:35:10</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>07:27:00</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>18:01:10</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>10:34:10</t>
+        </is>
+      </c>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>TT-282-CB</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>13054</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>გელა მამნიაშვილი</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>07:39:51</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>11:19:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>07:49:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>12:22:30</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>07:54:00</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
           <t>2024-05-10</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="B22" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>აგრარულის საერთო საცხოვრებელი</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>ვარკეთილის IV მ/რ</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>B_A</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>საგარანტიო</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>22:45:00</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>22:46:20</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>00:01:20</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>TT-433-CB</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>12816</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>გელა კოჭლამაზაშვილი</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>06:37:13</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>09:28:40</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>07:08:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10:34:12</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>07:13:00</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>16:55:21</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>09:42:21</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>TT-421-CB</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>13849</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>ხათუნა მიქავა</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>07:04:13</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>10:08:40</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>07:35:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>11:13:01</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>07:40:00</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>17:23:20</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>09:43:20</t>
+        </is>
+      </c>
+      <c r="N23" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>TT-282-CB</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>13525</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>ალექსი ჩიტიაშვილი</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>06:45:51</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>08:09:50</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>09:18:50</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>15:23:20</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>08:23:20</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>TT-276-CB</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>9051</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>ლაშა მაჭარაშვილი</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>07:12:51</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>13:49:20</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>07:22:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>15:09:30</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>07:27:00</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>20:52:00</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr">
+        <is>
+          <t>13:25:00</t>
+        </is>
+      </c>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>TT-287-CB</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>13605</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>გევორქ სარქისიანი</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>07:39:51</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>16:11:50</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>07:49:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>16:09:30</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>07:54:00</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>22:59:00</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr">
+        <is>
+          <t>15:05:00</t>
+        </is>
+      </c>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>TT-433-CB</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>12363</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>ალექსანდრე ალექსიძე</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>06:17:29</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>12:52:10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>13:40:20</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>21:45:20</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="inlineStr">
+        <is>
+          <t>14:45:20</t>
+        </is>
+      </c>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>TT-418-CB</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>7688</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>გოდერძი ყვავილაშვილი</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>13:06:20</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>07:23:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>14:03:31</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>07:28:00</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>14:42:00</t>
+        </is>
+      </c>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>TT-503-CB</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>11441</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>თეიმურაზი დევიძე</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>07:13:29</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>13:47:50</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>07:51:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>07:56:00</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>22:36:10</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>14:40:10</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>TT-352-CB</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>უშანგი მელელაშვილი</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>07:41:29</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>14:01:50</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>08:19:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>14:59:50</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>08:24:00</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>23:02:40</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>14:38:40</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>TT-423-CB</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>აკაკი მასურაშვილი</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>07:18:24</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>13:33:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>14:34:01</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>07:39:00</t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>22:50:40</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>15:11:40</t>
+        </is>
+      </c>
+      <c r="N31" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>TT-503-CB</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>11583</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>ზურაბი შოშიაშვილი</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>06:17:29</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>06:48:30</t>
+        </is>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L32" s="5" t="inlineStr">
+        <is>
+          <t>07:03:30</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>00:03:30</t>
+        </is>
+      </c>
+      <c r="N32" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>TT-418-CB</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>12913</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>ბაკური წიქარიშვილი</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>08:24:10</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>07:23:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>09:06:51</t>
+        </is>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>07:28:00</t>
+        </is>
+      </c>
+      <c r="L33" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>TT-423-CB</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>13540</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>კახა კრაველიძე</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>07:13:29</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>13:34:50</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>07:51:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>14:35:21</t>
+        </is>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>07:56:00</t>
+        </is>
+      </c>
+      <c r="L34" s="5" t="inlineStr">
+        <is>
+          <t>22:37:20</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>14:41:20</t>
+        </is>
+      </c>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>TT-360-CB</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>ზურაბი გიორგაძე</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>07:41:29</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>14:02:10</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>08:19:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>15:02:10</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>08:24:00</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>TT-433-CB</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>ნუგზარ მაისურაძე</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>07:18:24</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>13:35:30</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>14:31:30</t>
+        </is>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>07:39:00</t>
+        </is>
+      </c>
+      <c r="L36" s="5" t="inlineStr">
+        <is>
+          <t>22:51:00</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>15:12:00</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>TT-346-CB</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>ლერი ხაჭაპურიძე</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>06:17:29</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>12:47:50</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>13:38:50</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>21:45:10</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>14:45:10</t>
+        </is>
+      </c>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>TT-433-CB</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>12363</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>ალექსანდრე ალექსიძე</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>13:05:11</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>07:23:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>14:05:51</t>
+        </is>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>07:28:00</t>
+        </is>
+      </c>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>22:10:40</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>14:42:40</t>
+        </is>
+      </c>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>TT-423-CB</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>აკაკი მასურაშვილი</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>07:13:29</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>13:48:20</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>07:51:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>14:37:20</t>
+        </is>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>07:56:00</t>
+        </is>
+      </c>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>22:37:10</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t>14:41:10</t>
+        </is>
+      </c>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>TT-420-CB</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>11441</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>თეიმურაზი დევიძე</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>07:41:29</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>14:01:31</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>08:19:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>15:05:31</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>08:24:00</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>23:03:00</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>14:39:00</t>
+        </is>
+      </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>TT-306-CB</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>უშანგი მელელაშვილი</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>07:18:24</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>13:34:20</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>14:39:30</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>07:39:00</t>
+        </is>
+      </c>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>22:49:30</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t>15:10:30</t>
+        </is>
+      </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>TT-346-CB</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>13879</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>გიორგი ინასარიძე</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>06:17:29</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>12:46:10</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>13:37:20</t>
+        </is>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L42" s="5" t="inlineStr">
+        <is>
+          <t>21:47:10</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>14:47:10</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>TT-433-CB</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>ნუგზარ მაისურაძე</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>13:06:10</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>07:23:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>14:15:20</t>
+        </is>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>07:28:00</t>
+        </is>
+      </c>
+      <c r="L43" s="5" t="inlineStr">
+        <is>
+          <t>22:17:00</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t>14:49:00</t>
+        </is>
+      </c>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>TT-423-CB</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>13334</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>ნუკრი მასურაშვილი</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>07:13:29</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>13:32:30</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>07:51:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>14:16:00</t>
+        </is>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>07:56:00</t>
+        </is>
+      </c>
+      <c r="L44" s="5" t="inlineStr">
+        <is>
+          <t>22:39:50</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t>14:43:50</t>
+        </is>
+      </c>
+      <c r="N44" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>TT-420-CB</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>13540</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>კახა კრაველიძე</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>07:41:29</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>14:00:01</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>08:19:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>15:05:30</t>
+        </is>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>08:24:00</t>
+        </is>
+      </c>
+      <c r="L45" s="5" t="inlineStr">
+        <is>
+          <t>23:04:40</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="inlineStr">
+        <is>
+          <t>14:40:40</t>
+        </is>
+      </c>
+      <c r="N45" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>TT-503-CB</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>ზურაბი გიორგაძე</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>07:18:24</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>13:32:50</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>14:27:50</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>07:39:00</t>
+        </is>
+      </c>
+      <c r="L46" s="5" t="inlineStr">
+        <is>
+          <t>22:51:10</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>15:12:10</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>TT-503-CB</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>13579</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>ალექსი შიუკაშვილი</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>06:17:29</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>12:42:20</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>13:28:10</t>
+        </is>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="L47" s="5" t="inlineStr">
+        <is>
+          <t>21:44:00</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr">
+        <is>
+          <t>14:44:00</t>
+        </is>
+      </c>
+      <c r="N47" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>TT-346-CB</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>ლერი ხაჭაპურიძე</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>13:02:10</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>07:23:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>14:05:00</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>07:28:00</t>
+        </is>
+      </c>
+      <c r="L48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>TT-418-CB</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>7688</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>გოდერძი ყვავილაშვილი</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>07:13:29</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>13:45:51</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>07:51:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>14:43:10</t>
+        </is>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>07:56:00</t>
+        </is>
+      </c>
+      <c r="L49" s="5" t="inlineStr">
+        <is>
+          <t>22:39:20</t>
+        </is>
+      </c>
+      <c r="M49" s="3" t="inlineStr">
+        <is>
+          <t>14:43:20</t>
+        </is>
+      </c>
+      <c r="N49" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>TT-423-CB</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>აკაკი მასურაშვილი</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>07:41:29</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>14:02:00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>08:19:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>14:58:31</t>
+        </is>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>08:24:00</t>
+        </is>
+      </c>
+      <c r="L50" s="5" t="inlineStr">
+        <is>
+          <t>23:04:20</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>14:40:20</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>TT-420-CB</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>11441</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>თეიმურაზი დევიძე</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>07:18:24</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>13:32:01</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>14:37:11</t>
+        </is>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>07:39:00</t>
+        </is>
+      </c>
+      <c r="L51" s="5" t="inlineStr">
+        <is>
+          <t>22:51:00</t>
+        </is>
+      </c>
+      <c r="M51" s="3" t="inlineStr">
+        <is>
+          <t>15:12:00</t>
+        </is>
+      </c>
+      <c r="N51" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
